--- a/Project_2/data.xlsx
+++ b/Project_2/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>msize_int</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
@@ -224,15 +233,14 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="119017472"/>
-        <c:axId val="119058432"/>
+        <c:axId val="148108800"/>
+        <c:axId val="148110720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119017472"/>
+        <c:axId val="148108800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -257,14 +265,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119058432"/>
+        <c:crossAx val="148110720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119058432"/>
+        <c:axId val="148110720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -290,7 +298,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119017472"/>
+        <c:crossAx val="148108800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -299,7 +307,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -405,15 +413,14 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="62314368"/>
-        <c:axId val="62315904"/>
+        <c:axId val="148323712"/>
+        <c:axId val="148346368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62314368"/>
+        <c:axId val="148323712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,14 +445,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62315904"/>
+        <c:crossAx val="148346368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62315904"/>
+        <c:axId val="148346368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,7 +483,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62314368"/>
+        <c:crossAx val="148323712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -485,7 +492,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -597,14 +604,13 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="64476288"/>
-        <c:axId val="64481536"/>
+        <c:axId val="148850176"/>
+        <c:axId val="148852096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64476288"/>
+        <c:axId val="148850176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,14 +639,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64481536"/>
+        <c:crossAx val="148852096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64481536"/>
+        <c:axId val="148852096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +672,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64476288"/>
+        <c:crossAx val="148850176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -675,7 +681,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1061,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1423,7 +1429,7 @@
         <v>7.4140629999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1431,12 +1437,100 @@
         <v>22.412583000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
         <v>31.506723000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>104</v>
+      </c>
+      <c r="B38">
+        <v>5.6899999999999997E-3</v>
+      </c>
+      <c r="C38">
+        <v>2.0100000000000001E-3</v>
+      </c>
+      <c r="E38">
+        <v>104</v>
+      </c>
+      <c r="F38">
+        <v>5.633E-3</v>
+      </c>
+      <c r="G38">
+        <v>1.4679999999999999E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>208</v>
+      </c>
+      <c r="B39">
+        <v>4.3679000000000003E-2</v>
+      </c>
+      <c r="C39">
+        <v>4.8789999999999997E-3</v>
+      </c>
+      <c r="E39">
+        <v>208</v>
+      </c>
+      <c r="F39">
+        <v>4.3751999999999999E-2</v>
+      </c>
+      <c r="G39">
+        <v>5.8859999999999997E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>416</v>
+      </c>
+      <c r="B40">
+        <v>0.35225099999999998</v>
+      </c>
+      <c r="C40">
+        <v>2.2519000000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>416</v>
+      </c>
+      <c r="F40">
+        <v>0.34760099999999999</v>
+      </c>
+      <c r="G40">
+        <v>2.4686E-2</v>
       </c>
     </row>
   </sheetData>
